--- a/report/checklist.xlsx
+++ b/report/checklist.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-18.04\home\tamle\projects\nachos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-18.04\home\tamle\projects\nachos\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D15BF2-B90B-4AFA-95F6-3A285648D7EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A53594D1-2AC4-4F6B-B3F4-E98A8EF18F92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="22">
   <si>
     <t>Xử lý exceptions</t>
   </si>
@@ -436,7 +436,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -451,7 +451,9 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
+      <c r="C1" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
@@ -581,7 +583,9 @@
       <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="14" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
@@ -590,7 +594,9 @@
       <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="15" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
@@ -599,7 +605,9 @@
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="16" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
@@ -608,7 +616,9 @@
       <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="17" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
@@ -617,7 +627,9 @@
       <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="18" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
@@ -626,7 +638,9 @@
       <c r="B18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="19" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
@@ -635,7 +649,9 @@
       <c r="B19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="20" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
@@ -644,7 +660,9 @@
       <c r="B20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="2"/>
+      <c r="C20" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="21" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
@@ -653,7 +671,9 @@
       <c r="B21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="2"/>
+      <c r="C21" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
